--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/42/word_level_predictions_42.xlsx
@@ -502,210 +502,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" t="n">
         <v>4</v>
       </c>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" t="n">
         <v>4</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>4</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>2</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>4</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>3</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -6217,59 +6217,59 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7626,156 +7626,156 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="F285" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G285" s="2" t="b">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="L285" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="F287" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G287" s="2" t="b">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="L287" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17038,366 +17038,366 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
+      <c r="A320" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B320" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
+      <c r="C320" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D320" t="n">
+      <c r="D320" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E320" t="inlineStr">
+      <c r="E320" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F320" t="inlineStr">
+      <c r="F320" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G320" t="b">
-        <v>1</v>
-      </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I320" t="b">
-        <v>1</v>
-      </c>
-      <c r="J320" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K320" t="b">
-        <v>1</v>
-      </c>
-      <c r="L320" t="inlineStr">
+      <c r="G320" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H320" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I320" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J320" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K320" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L320" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" s="2" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
+      <c r="F321" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G321" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I321" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K321" t="b">
-        <v>1</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="G321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E322" t="inlineStr">
+      <c r="E322" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
+      <c r="F322" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I322" t="b">
-        <v>1</v>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K322" t="b">
-        <v>1</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="G322" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E323" t="inlineStr">
+      <c r="E323" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
+      <c r="F323" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I323" t="b">
-        <v>1</v>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K323" t="b">
-        <v>1</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="G323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J323" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E324" t="inlineStr">
+      <c r="E324" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F324" t="inlineStr">
+      <c r="F324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E325" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D325" t="n">
-        <v>9</v>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>18</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori4/42/word_level_predictions_42.xlsx
@@ -502,210 +502,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5182,210 +5182,210 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>2</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>4</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6193,83 +6193,83 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>5</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7626,156 +7626,156 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>7</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>7</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>7</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>8</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>7</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass Error . Compass data error . Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>9</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="F285" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G285" s="2" t="b">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="L285" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15345,7 +15345,7 @@
       </c>
       <c r="F287" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G287" s="2" t="b">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="L287" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17038,366 +17038,366 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="n">
+      <c r="A320" t="n">
         <v>18</v>
       </c>
-      <c r="B320" s="2" t="inlineStr">
+      <c r="B320" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C320" s="2" t="inlineStr">
+      <c r="C320" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D320" s="2" t="n">
+      <c r="D320" t="n">
         <v>4</v>
       </c>
-      <c r="E320" s="2" t="inlineStr">
+      <c r="E320" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F320" s="2" t="inlineStr">
+      <c r="F320" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G320" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H320" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I320" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K320" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L320" s="2" t="inlineStr">
+      <c r="G320" t="b">
+        <v>1</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I320" t="b">
+        <v>1</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K320" t="b">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" t="n">
         <v>18</v>
       </c>
-      <c r="B321" s="2" t="inlineStr">
+      <c r="B321" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C321" s="2" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D321" s="2" t="n">
+      <c r="D321" t="n">
         <v>5</v>
       </c>
-      <c r="E321" s="2" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F321" s="2" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G321" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L321" s="2" t="inlineStr">
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I321" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K321" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" t="n">
         <v>18</v>
       </c>
-      <c r="B322" s="2" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C322" s="2" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" s="2" t="n">
+      <c r="D322" t="n">
         <v>6</v>
       </c>
-      <c r="E322" s="2" t="inlineStr">
+      <c r="E322" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F322" s="2" t="inlineStr">
+      <c r="F322" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G322" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L322" s="2" t="inlineStr">
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K322" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" t="n">
         <v>18</v>
       </c>
-      <c r="B323" s="2" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C323" s="2" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D323" s="2" t="n">
+      <c r="D323" t="n">
         <v>7</v>
       </c>
-      <c r="E323" s="2" t="inlineStr">
+      <c r="E323" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F323" s="2" t="inlineStr">
+      <c r="F323" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G323" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L323" s="2" t="inlineStr">
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K323" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" t="n">
         <v>18</v>
       </c>
-      <c r="B324" s="2" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D324" s="2" t="n">
+      <c r="D324" t="n">
         <v>8</v>
       </c>
-      <c r="E324" s="2" t="inlineStr">
+      <c r="E324" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L324" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" t="n">
         <v>18</v>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
+      <c r="D325" t="n">
         <v>9</v>
       </c>
-      <c r="E325" s="2" t="inlineStr">
+      <c r="E325" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" t="n">
         <v>18</v>
       </c>
-      <c r="B326" s="2" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
+      <c r="D326" t="n">
         <v>10</v>
       </c>
-      <c r="E326" s="2" t="inlineStr">
+      <c r="E326" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
